--- a/vue-back-server/temp/invalid_data_Fiabilisation SN test.xlsx
+++ b/vue-back-server/temp/invalid_data_Fiabilisation SN test.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J56"/>
+  <dimension ref="A1:J106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,128 +491,124 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>17034911</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>ELHADJI MAMATH</t>
-        </is>
-      </c>
+        <v>17064711</v>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" s="2" t="n">
-        <v>45426</v>
+        <v>45433</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>AGENCE KAOLACK</t>
+          <t>AGENCE PARCELLES</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>253310085001</v>
+        <v>253010013267</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Ndeye Fatou SECK</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Adresse email obligatoire manquante.</t>
-        </is>
-      </c>
+          <t>DIEYNABA BOLY NIASSE</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>TEL_BUR '775550843.0' ne peut pas être interprété comme un numéro valide.</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>17081611</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>SEYNABOU</t>
-        </is>
-      </c>
+        <v>17117911</v>
+      </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" s="2" t="n">
-        <v>45435</v>
+        <v>45446</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>AGENCE PIKINE</t>
+          <t>AGENCE THIES</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>253310085336</v>
+        <v>253010013330</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Ndeye Yacine MBAYE</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Adresse email obligatoire manquante.</t>
-        </is>
-      </c>
+          <t>DIEYNABA BOLY NIASSE</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>TEL_BUR '772172982.0' ne peut pas être interprété comme un numéro valide.</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>17101211</v>
+        <v>16992611</v>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" s="2" t="n">
-        <v>45440</v>
+        <v>45415</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>COFINA EXPRESS DIOURBEL</t>
+          <t>AGENCE PRINCIPALE POINT E</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>253010013300</v>
+        <v>253010013165</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Fatou DIOP</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Adresse email obligatoire manquante.</t>
-        </is>
-      </c>
+          <t>DIEYNABA BOLY NIASSE</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>TEL_BUR '775914169.0' ne peut pas être interprété comme un numéro valide.</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>17066711</v>
+        <v>17034911</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MANUELLE FORTUNE JUDICAELLE</t>
+          <t>ELHADJI MAMATH</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
-        <v>45433</v>
+        <v>45426</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>AGENCE PRINCIPALE POINT E</t>
+          <t>AGENCE KAOLACK</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>253310085212</v>
+        <v>253310085001</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>NDEYE Fatimatou Touré BOYE</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr"/>
+          <t>Ndeye Fatou SECK</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>TEL_BUR '779933558.0' ne peut pas être interprété comme un numéro valide.</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr">
         <is>
           <t>Adresse email obligatoire manquante.</t>
@@ -623,11 +619,11 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>17096611</v>
+        <v>17026511</v>
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" s="2" t="n">
-        <v>45439</v>
+        <v>45425</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -635,48 +631,52 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>253010013297</v>
+        <v>253010013225</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>NDEYE Fatimatou Touré BOYE</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Adresse email obligatoire manquante.</t>
-        </is>
-      </c>
+          <t>DIEYNABA BOLY NIASSE</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>TEL_BUR '776541598.0' ne peut pas être interprété comme un numéro valide.</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>16994511</v>
+        <v>17081611</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>KHALIFA</t>
+          <t>SEYNABOU</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
-        <v>45415</v>
+        <v>45435</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>AGENCE PARCELLES</t>
+          <t>AGENCE PIKINE</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>253310084728</v>
+        <v>253310085336</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Ndeye Yacine MBAYE</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr"/>
+          <t>Astou Diop DIAWARA</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>TEL_BUR '775636363.0' ne peut pas être interprété comme un numéro valide.</t>
+        </is>
+      </c>
       <c r="H7" t="inlineStr">
         <is>
           <t>Adresse email obligatoire manquante.</t>
@@ -687,60 +687,60 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>17013311</v>
+        <v>17090611</v>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" s="2" t="n">
-        <v>45420</v>
+        <v>45439</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>AGENCE TOUBA KHAYRA</t>
+          <t>AGENCE PRINCIPALE POINT E</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>253010013206</v>
+        <v>253010013292</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Ndeye Mane DIEYE</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Adresse email obligatoire manquante.</t>
-        </is>
-      </c>
+          <t>NDEYE Fatimatou Touré BOYE</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>TEL_BUR '781210930.0' ne peut pas être interprété comme un numéro valide.</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>17020011</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>SECK YORO</t>
-        </is>
-      </c>
+        <v>17101211</v>
+      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" s="2" t="n">
-        <v>45422</v>
+        <v>45440</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>AGENCE KAOLACK</t>
+          <t>COFINA EXPRESS DIOURBEL</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>253010013215</v>
+        <v>253010013300</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>AWA KASSE THIAM</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr"/>
+          <t>DIEYNABA BOLY NIASSE</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>TEL_BUR '774061212.0' ne peut pas être interprété comme un numéro valide.</t>
+        </is>
+      </c>
       <c r="H9" t="inlineStr">
         <is>
           <t>Adresse email obligatoire manquante.</t>
@@ -751,30 +751,34 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>17038411</v>
+        <v>17066711</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>NDEYE AMINATA D ANTA</t>
+          <t>MANUELLE FORTUNE JUDICAELLE</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
-        <v>45427</v>
+        <v>45433</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>COFINA EXPRESS RUFISQUE</t>
+          <t>AGENCE PRINCIPALE POINT E</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>253310085034</v>
+        <v>253310085212</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Emilie Siga SARR - CE</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr"/>
+          <t>Aïssatou THIAW</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>TEL_BUR '769465381.0' ne peut pas être interprété comme un numéro valide.</t>
+        </is>
+      </c>
       <c r="H10" t="inlineStr">
         <is>
           <t>Adresse email obligatoire manquante.</t>
@@ -785,79 +789,71 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>17075111</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>KHOUDIA NIANG</t>
-        </is>
-      </c>
+        <v>17106711</v>
+      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" s="2" t="n">
-        <v>45434</v>
+        <v>45442</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>AGENCE KAOLACK</t>
+          <t>AGENCE TOUBA KHAYRA</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>253310085282</v>
+        <v>253010013310</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Ndeye Fatou SECK</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Adresse email obligatoire manquante.</t>
-        </is>
-      </c>
+          <t>DIEYNABA BOLY NIASSE</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>TEL_BUR '774343439.0' ne peut pas être interprété comme un numéro valide.</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>17051811</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>MASSE</t>
-        </is>
-      </c>
+        <v>17008911</v>
+      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" s="2" t="n">
-        <v>45429</v>
+        <v>45420</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>AGENCE TOUBA KHAYRA</t>
+          <t>COFINA EXPRESS NGUELAW</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>253310085112</v>
+        <v>253010013200</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Ndeye Mane DIEYE</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Adresse email obligatoire manquante.</t>
-        </is>
-      </c>
+          <t>DIEYNABA BOLY NIASSE</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>TEL_BUR '776226369.0' ne peut pas être interprété comme un numéro valide.</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>17108411</v>
+        <v>17096611</v>
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" s="2" t="n">
-        <v>45443</v>
+        <v>45439</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -865,14 +861,18 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>253010013316</v>
+        <v>253010013297</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>NDEYE Fatimatou Touré BOYE</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr"/>
+          <t>DIEYNABA BOLY NIASSE</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>TEL_BUR '772279790.0' ne peut pas être interprété comme un numéro valide.</t>
+        </is>
+      </c>
       <c r="H13" t="inlineStr">
         <is>
           <t>Adresse email obligatoire manquante.</t>
@@ -883,11 +883,15 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>17102411</v>
-      </c>
-      <c r="B14" t="inlineStr"/>
+        <v>17075611</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>FATOUMATA BINETOU RASSOUL</t>
+        </is>
+      </c>
       <c r="C14" s="2" t="n">
-        <v>45441</v>
+        <v>45434</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -895,48 +899,52 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>253010013302</v>
+        <v>253310085288</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>NDEYE Fatimatou Touré BOYE</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Adresse email obligatoire manquante.</t>
-        </is>
-      </c>
+          <t>AISSATOU NDIAYE</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>TEL_BUR '772630281.0' ne peut pas être interprété comme un numéro valide.</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>17075411</v>
+        <v>16994511</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>EL HADJI MAMADOU GUEYE NAGO</t>
+          <t>KHALIFA</t>
         </is>
       </c>
       <c r="C15" s="2" t="n">
-        <v>45434</v>
+        <v>45415</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>AGENCE PRINCIPALE POINT E</t>
+          <t>AGENCE PARCELLES</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>253310085285</v>
+        <v>253310084728</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>NDEYE Fatimatou Touré BOYE</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr"/>
+          <t>Ndeye Yacine MBAYE</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>TEL_BUR '777011675.0' ne peut pas être interprété comme un numéro valide.</t>
+        </is>
+      </c>
       <c r="H15" t="inlineStr">
         <is>
           <t>Adresse email obligatoire manquante.</t>
@@ -947,26 +955,30 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>17095111</v>
+        <v>17013311</v>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" s="2" t="n">
-        <v>45439</v>
+        <v>45420</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>AGENCE PRINCIPALE POINT E</t>
+          <t>AGENCE TOUBA KHAYRA</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>253010013295</v>
+        <v>253010013206</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>NDEYE Fatimatou Touré BOYE</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr"/>
+          <t>Ndeye Mane DIEYE</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>TEL_BUR '779441220.0' ne peut pas être interprété comme un numéro valide.</t>
+        </is>
+      </c>
       <c r="H16" t="inlineStr">
         <is>
           <t>Adresse email obligatoire manquante.</t>
@@ -977,94 +989,98 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>17195811</v>
+        <v>17040911</v>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" s="2" t="n">
-        <v>45471</v>
+        <v>45427</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>AGENCE PRINCIPALE POINT E</t>
+          <t>COFINA EXPRESS MARISTES</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>253010013423</v>
+        <v>253010013242</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>NDEYE Fatimatou Touré BOYE</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Adresse email obligatoire manquante.</t>
-        </is>
-      </c>
+          <t>Ndeye Safietou NDIAYE</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>TEL_BUR '775345204.0' ne peut pas être interprété comme un numéro valide.</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>17376111</v>
+        <v>17058611</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MAMADOU</t>
+          <t>KICHIEDOU CHRISTIAN DESIRE</t>
         </is>
       </c>
       <c r="C18" s="2" t="n">
-        <v>45537</v>
+        <v>45433</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>COFINA EXPRESS PIKINE TB</t>
+          <t>COFINA EXPRESS MARISTES</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>253310087078</v>
+        <v>253310085151</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Ndeye Fatou TOURE - CE</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Adresse email obligatoire manquante.</t>
-        </is>
-      </c>
+          <t>Ndeye Safietou NDIAYE</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>TEL_BUR '773861774.0' ne peut pas être interprété comme un numéro valide.</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>17406411</v>
+        <v>17020011</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>PIGBOTAMA SARAH MARIAM</t>
+          <t>SECK YORO</t>
         </is>
       </c>
       <c r="C19" s="2" t="n">
-        <v>45546</v>
+        <v>45422</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>AGENCE PRINCIPALE POINT E</t>
+          <t>AGENCE KAOLACK</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>253360000564</v>
+        <v>253010013215</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>COURA SIMAL</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr"/>
+          <t>DIEYNABA BOLY NIASSE</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>TEL_BUR '775339699.0' ne peut pas être interprété comme un numéro valide.</t>
+        </is>
+      </c>
       <c r="H19" t="inlineStr">
         <is>
           <t>Adresse email obligatoire manquante.</t>
@@ -1075,30 +1091,34 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>17171711</v>
+        <v>17038411</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MARIAMA</t>
+          <t>NDEYE AMINATA D ANTA</t>
         </is>
       </c>
       <c r="C20" s="2" t="n">
-        <v>45463</v>
+        <v>45427</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>AGENCE LINGUERE'LA GUEDIAWAYE</t>
+          <t>COFINA EXPRESS RUFISQUE</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>253600000073</v>
+        <v>253310085034</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Aminata DIOP</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr"/>
+          <t>Emilie Siga SARR - CE</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>TEL_BUR '777756132.0' ne peut pas être interprété comme un numéro valide.</t>
+        </is>
+      </c>
       <c r="H20" t="inlineStr">
         <is>
           <t>Adresse email obligatoire manquante.</t>
@@ -1109,15 +1129,11 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>17198411</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>MAHE</t>
-        </is>
-      </c>
+        <v>17121611</v>
+      </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" s="2" t="n">
-        <v>45474</v>
+        <v>45447</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1125,44 +1141,52 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>253310086015</v>
+        <v>253010013333</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
           <t>NDEYE Fatimatou Touré BOYE</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Adresse email obligatoire manquante.</t>
-        </is>
-      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>TEL_BUR '774911175.0' ne peut pas être interprété comme un numéro valide.</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>17348811</v>
-      </c>
-      <c r="B22" t="inlineStr"/>
+        <v>17075111</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>KHOUDIA NIANG</t>
+        </is>
+      </c>
       <c r="C22" s="2" t="n">
-        <v>45523</v>
+        <v>45434</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>COFINA EXPRESS NIARY TALY</t>
+          <t>AGENCE KAOLACK</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>253010013612</v>
+        <v>253310085282</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Thiane DIOP</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr"/>
+          <t>Ndeye Fatou SECK</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>TEL_BUR '779548849.0' ne peut pas être interprété comme un numéro valide.</t>
+        </is>
+      </c>
       <c r="H22" t="inlineStr">
         <is>
           <t>Adresse email obligatoire manquante.</t>
@@ -1173,30 +1197,34 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>17413211</v>
+        <v>17051811</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>EL HADJI AMADOU</t>
+          <t>MASSE</t>
         </is>
       </c>
       <c r="C23" s="2" t="n">
-        <v>45548</v>
+        <v>45429</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>AGENCE PRINCIPALE POINT E</t>
+          <t>AGENCE TOUBA KHAYRA</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>253310087240</v>
+        <v>253310085112</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>NDEYE Fatimatou Touré BOYE</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr"/>
+          <t>Ndeye Mane DIEYE</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>TEL_BUR '774489007.0' ne peut pas être interprété comme un numéro valide.</t>
+        </is>
+      </c>
       <c r="H23" t="inlineStr">
         <is>
           <t>Adresse email obligatoire manquante.</t>
@@ -1207,94 +1235,94 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>17184111</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>VIEUX MOUHAMADOU MOUSTAPHA</t>
-        </is>
-      </c>
+        <v>17140611</v>
+      </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" s="2" t="n">
-        <v>45468</v>
+        <v>45453</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>AGENCE PRINCIPALE POINT E</t>
+          <t>AGENCE VITRINE LAMINE GUEYE</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>253310085927</v>
+        <v>253010013356</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Mounde PAYE</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>Adresse email obligatoire manquante.</t>
-        </is>
-      </c>
+          <t>Aissatou NGOM</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>TEL_BUR '772420927.0' ne peut pas être interprété comme un numéro valide.</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>17462611</v>
+        <v>17131811</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ABDOU</t>
+          <t>EMMANUELLE LILIANA MALAINE</t>
         </is>
       </c>
       <c r="C25" s="2" t="n">
-        <v>45568</v>
+        <v>45449</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>AGENCE MBOUR</t>
+          <t>AGENCE PRINCIPALE POINT E</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>253310087383</v>
+        <v>253310085648</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Ndeye AWA DRAME</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>Adresse email obligatoire manquante.</t>
-        </is>
-      </c>
+          <t>AISSATOU NDIAYE</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>TEL_BUR '775799026.0' ne peut pas être interprété comme un numéro valide.</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>17384111</v>
+        <v>17108411</v>
       </c>
       <c r="B26" t="inlineStr"/>
       <c r="C26" s="2" t="n">
-        <v>45539</v>
+        <v>45443</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>AGENCE CASTOR</t>
+          <t>AGENCE PRINCIPALE POINT E</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>253010013654</v>
+        <v>253010013316</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>COURA SIMAL</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr"/>
+          <t>NDEYE Fatimatou Touré BOYE</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>TEL_BUR '774504515.0' ne peut pas être interprété comme un numéro valide.</t>
+        </is>
+      </c>
       <c r="H26" t="inlineStr">
         <is>
           <t>Adresse email obligatoire manquante.</t>
@@ -1305,11 +1333,11 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>17394111</v>
+        <v>17102411</v>
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" s="2" t="n">
-        <v>45541</v>
+        <v>45441</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1317,14 +1345,18 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>253010013662</v>
+        <v>253010013302</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>COURA SIMAL</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr"/>
+          <t>NDEYE Fatimatou Touré BOYE</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>TEL_BUR '777356941.0' ne peut pas être interprété comme un numéro valide.</t>
+        </is>
+      </c>
       <c r="H27" t="inlineStr">
         <is>
           <t>Adresse email obligatoire manquante.</t>
@@ -1335,11 +1367,15 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>17191511</v>
-      </c>
-      <c r="B28" t="inlineStr"/>
+        <v>17075411</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>EL HADJI MAMADOU GUEYE NAGO</t>
+        </is>
+      </c>
       <c r="C28" s="2" t="n">
-        <v>45470</v>
+        <v>45434</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1347,14 +1383,18 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>253010013418</v>
+        <v>253310085285</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>NDEYE Fatimatou Touré BOYE</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr"/>
+          <t>Aïssatou THIAW</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>TEL_BUR '776850353.0' ne peut pas être interprété comme un numéro valide.</t>
+        </is>
+      </c>
       <c r="H28" t="inlineStr">
         <is>
           <t>Adresse email obligatoire manquante.</t>
@@ -1365,30 +1405,30 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>17173611</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>MBAYE</t>
-        </is>
-      </c>
+        <v>17095111</v>
+      </c>
+      <c r="B29" t="inlineStr"/>
       <c r="C29" s="2" t="n">
-        <v>45464</v>
+        <v>45439</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>COFINA EXPRESS MARISTES</t>
+          <t>AGENCE PRINCIPALE POINT E</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>253310085877</v>
+        <v>253010013295</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Vinie DASYLVA</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr"/>
+          <t>Aïssatou THIAW</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>TEL_BUR '784886162.0' ne peut pas être interprété comme un numéro valide.</t>
+        </is>
+      </c>
       <c r="H29" t="inlineStr">
         <is>
           <t>Adresse email obligatoire manquante.</t>
@@ -1399,94 +1439,90 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>17290911</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>BASSIROU</t>
-        </is>
-      </c>
+        <v>17115711</v>
+      </c>
+      <c r="B30" t="inlineStr"/>
       <c r="C30" s="2" t="n">
-        <v>45503</v>
+        <v>45446</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>COFINA EXPRESS TOUBA OCAS</t>
+          <t>AGENCE VITRINE LAMINE GUEYE</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>253310086581</v>
+        <v>253010013325</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Fatou Ndiaye FALL</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Adresse email obligatoire manquante.</t>
-        </is>
-      </c>
+          <t>DIEYNABA BOLY NIASSE</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>TEL_BUR '775423813.0' ne peut pas être interprété comme un numéro valide.</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>17308311</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>SERIGNE FALILOU</t>
-        </is>
-      </c>
+        <v>17289411</v>
+      </c>
+      <c r="B31" t="inlineStr"/>
       <c r="C31" s="2" t="n">
-        <v>45509</v>
+        <v>45502</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>AGENCE PIKINE</t>
+          <t>AGENCE PRINCIPALE POINT E</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>253310086677</v>
+        <v>253010013545</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Ndeye Yacine MBAYE</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Adresse email obligatoire manquante.</t>
-        </is>
-      </c>
+          <t>AISSATOU NDIAYE</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>TEL_BUR '777428080.0' ne peut pas être interprété comme un numéro valide.</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>17153911</v>
+        <v>17195811</v>
       </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" s="2" t="n">
-        <v>45455</v>
+        <v>45471</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>COFINA EXPRESS NIARY TALY</t>
+          <t>AGENCE PRINCIPALE POINT E</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>253010013373</v>
+        <v>253010013423</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Thiane DIOP</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr"/>
+          <t>NDEYE Fatimatou Touré BOYE</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>TEL_BUR '775508147.0' ne peut pas être interprété comme un numéro valide.</t>
+        </is>
+      </c>
       <c r="H32" t="inlineStr">
         <is>
           <t>Adresse email obligatoire manquante.</t>
@@ -1497,56 +1533,64 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>17534811</v>
+        <v>17331711</v>
       </c>
       <c r="B33" t="inlineStr"/>
       <c r="C33" s="2" t="n">
-        <v>45600</v>
+        <v>45516</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>AGENCE SAINT-LOUIS</t>
+          <t>AGENCE PRINCIPALE POINT E</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>253010013737</v>
+        <v>253010013591</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>COURA SIMAL</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>Adresse email obligatoire manquante.</t>
-        </is>
-      </c>
+          <t>AISSATOU NDIAYE</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>TEL_BUR '776491093.0' ne peut pas être interprété comme un numéro valide.</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>17319211</v>
-      </c>
-      <c r="B34" t="inlineStr"/>
+        <v>17376111</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>MAMADOU</t>
+        </is>
+      </c>
       <c r="C34" s="2" t="n">
-        <v>45512</v>
+        <v>45537</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>AGENCE PARCELLES</t>
+          <t>COFINA EXPRESS PIKINE TB</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>253010013580</v>
+        <v>253310087078</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Astou Diop DIAWARA</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr"/>
+          <t>Ndeye Fatou TOURE - CE</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>TEL_BUR '779460990.0' ne peut pas être interprété comme un numéro valide.</t>
+        </is>
+      </c>
       <c r="H34" t="inlineStr">
         <is>
           <t>Adresse email obligatoire manquante.</t>
@@ -1557,94 +1601,98 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>17511211</v>
+        <v>17381211</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>SOKHNA FATY NDAO</t>
+          <t>NDEYE FATOU</t>
         </is>
       </c>
       <c r="C35" s="2" t="n">
-        <v>45588</v>
+        <v>45538</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>AGENCE PARCELLES</t>
+          <t>AGENCE CASTOR</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>253310087522</v>
+        <v>253310087115</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Astou Diop DIAWARA</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>Adresse email obligatoire manquante.</t>
-        </is>
-      </c>
+          <t>Fatou DIANKHA</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>TEL_BUR '773640877.0' ne peut pas être interprété comme un numéro valide.</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>17236311</v>
+        <v>17390811</v>
       </c>
       <c r="B36" t="inlineStr"/>
       <c r="C36" s="2" t="n">
-        <v>45484</v>
+        <v>45540</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>AGENCE PARCELLES</t>
+          <t>AGENCE TOUBA KHAYRA</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>253010013485</v>
+        <v>253010013658</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>COURA SIMAL</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>Adresse email obligatoire manquante.</t>
-        </is>
-      </c>
+          <t>Ndeye Mane DIEYE</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>TEL_BUR '770305757.0' ne peut pas être interprété comme un numéro valide.</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>17153011</v>
+        <v>17406411</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>MAMATH</t>
+          <t>PIGBOTAMA SARAH MARIAM</t>
         </is>
       </c>
       <c r="C37" s="2" t="n">
-        <v>45455</v>
+        <v>45546</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>AGENCE KAOLACK</t>
+          <t>AGENCE PRINCIPALE POINT E</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>253310085772</v>
+        <v>253360000564</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>AWA KASSE THIAM</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr"/>
+          <t>COURA SIMAL</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>TEL_BUR '781453374.0' ne peut pas être interprété comme un numéro valide.</t>
+        </is>
+      </c>
       <c r="H37" t="inlineStr">
         <is>
           <t>Adresse email obligatoire manquante.</t>
@@ -1655,30 +1703,34 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>17158611</v>
+        <v>17171711</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>KHADY</t>
+          <t>MARIAMA</t>
         </is>
       </c>
       <c r="C38" s="2" t="n">
-        <v>45456</v>
+        <v>45463</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>AGENCE CASTOR</t>
+          <t>AGENCE LINGUERE'LA GUEDIAWAYE</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>253310085817</v>
+        <v>253600000073</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Fatou DIANKHA</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr"/>
+          <t>Aminata DIOP</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>TEL_BUR '777345725.0' ne peut pas être interprété comme un numéro valide.</t>
+        </is>
+      </c>
       <c r="H38" t="inlineStr">
         <is>
           <t>Adresse email obligatoire manquante.</t>
@@ -1689,15 +1741,15 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>17252711</v>
+        <v>17198411</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>MARIEME</t>
+          <t>MAHE</t>
         </is>
       </c>
       <c r="C39" s="2" t="n">
-        <v>45491</v>
+        <v>45474</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1705,14 +1757,18 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>253310086353</v>
+        <v>253310086015</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>NDEYE Fatimatou Touré BOYE</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr"/>
+          <t>DIEYNABA BOLY NIASSE</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>TEL_BUR '777400764.0' ne peut pas être interprété comme un numéro valide.</t>
+        </is>
+      </c>
       <c r="H39" t="inlineStr">
         <is>
           <t>Adresse email obligatoire manquante.</t>
@@ -1723,30 +1779,30 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>17365211</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>BIRAIMA</t>
-        </is>
-      </c>
+        <v>17348811</v>
+      </c>
+      <c r="B40" t="inlineStr"/>
       <c r="C40" s="2" t="n">
-        <v>45532</v>
+        <v>45523</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>AGENCE PRINCIPALE POINT E</t>
+          <t>COFINA EXPRESS NIARY TALY</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>253310087017</v>
+        <v>253010013612</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>NDEYE Fatimatou Touré BOYE</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr"/>
+          <t>Thiane DIOP</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>TEL_BUR '775186848.0' ne peut pas être interprété comme un numéro valide.</t>
+        </is>
+      </c>
       <c r="H40" t="inlineStr">
         <is>
           <t>Adresse email obligatoire manquante.</t>
@@ -1757,15 +1813,11 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>17374711</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>CHERIF ATKHANA</t>
-        </is>
-      </c>
+        <v>17355811</v>
+      </c>
+      <c r="B41" t="inlineStr"/>
       <c r="C41" s="2" t="n">
-        <v>45537</v>
+        <v>45525</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1773,112 +1825,116 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>253310087068</v>
+        <v>253010013621</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
           <t>NDEYE Fatimatou Touré BOYE</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>Adresse email obligatoire manquante.</t>
-        </is>
-      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>TEL_BUR '775615776.0' ne peut pas être interprété comme un numéro valide.</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>17380211</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>CHEIKHNA</t>
-        </is>
-      </c>
+        <v>17356411</v>
+      </c>
+      <c r="B42" t="inlineStr"/>
       <c r="C42" s="2" t="n">
-        <v>45538</v>
+        <v>45530</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>AGENCE MBOUR</t>
+          <t>AGENCE PRINCIPALE POINT E</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>253310087105</v>
+        <v>253010013624</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Ndeye AWA DRAME</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>Adresse email obligatoire manquante.</t>
-        </is>
-      </c>
+          <t>NDEYE Fatimatou Touré BOYE</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>TEL_BUR '774787361.0' ne peut pas être interprété comme un numéro valide.</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>17388511</v>
+        <v>17148011</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>MAME MOR ANTA SALY</t>
+          <t>EMILIO MANUEL</t>
         </is>
       </c>
       <c r="C43" s="2" t="n">
-        <v>45540</v>
+        <v>45454</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>AGENCE PRINCIPALE POINT E</t>
+          <t>AGENCE VITRINE LAMINE GUEYE</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>253310087154</v>
+        <v>253310085741</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>NDEYE Fatimatou Touré BOYE</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>Adresse email obligatoire manquante.</t>
-        </is>
-      </c>
+          <t>Victorine Sophie Claude DIENE</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>TEL_BUR '774145999.0' ne peut pas être interprété comme un numéro valide.</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>17282011</v>
-      </c>
-      <c r="B44" t="inlineStr"/>
+        <v>17413211</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>EL HADJI AMADOU</t>
+        </is>
+      </c>
       <c r="C44" s="2" t="n">
-        <v>45499</v>
+        <v>45548</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>AGENCE SAINT-LOUIS</t>
+          <t>AGENCE PRINCIPALE POINT E</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>253010013535</v>
+        <v>253310087240</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>KHADY LO</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr"/>
+          <t>NDEYE Fatimatou Touré BOYE</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>TEL_BUR '776020665.0' ne peut pas être interprété comme un numéro valide.</t>
+        </is>
+      </c>
       <c r="H44" t="inlineStr">
         <is>
           <t>Adresse email obligatoire manquante.</t>
@@ -1889,26 +1945,34 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>17416611</v>
-      </c>
-      <c r="B45" t="inlineStr"/>
+        <v>17184111</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>VIEUX MOUHAMADOU MOUSTAPHA</t>
+        </is>
+      </c>
       <c r="C45" s="2" t="n">
-        <v>45552</v>
+        <v>45468</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>AGENCE PARCELLES</t>
+          <t>AGENCE PRINCIPALE POINT E</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>253010013691</v>
+        <v>253310085927</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Ndeye Yacine MBAYE</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr"/>
+          <t>COURA SIMAL</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>TEL_BUR '784060807.0' ne peut pas être interprété comme un numéro valide.</t>
+        </is>
+      </c>
       <c r="H45" t="inlineStr">
         <is>
           <t>Adresse email obligatoire manquante.</t>
@@ -1919,30 +1983,34 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>17456711</v>
+        <v>17462611</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>MOUHAMADOU LAMINE</t>
+          <t>ABDOU</t>
         </is>
       </c>
       <c r="C46" s="2" t="n">
-        <v>45566</v>
+        <v>45568</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>AGENCE LINGUERE'LA GUEDIAWAYE</t>
+          <t>AGENCE MBOUR</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>253600000083</v>
+        <v>253310087383</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>FALL ASTA DIOP</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr"/>
+          <t>Ndeye AWA DRAME</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>TEL_BUR 'nan' ne peut pas être interprété comme un numéro valide.</t>
+        </is>
+      </c>
       <c r="H46" t="inlineStr">
         <is>
           <t>Adresse email obligatoire manquante.</t>
@@ -1953,26 +2021,30 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>17149411</v>
+        <v>17384111</v>
       </c>
       <c r="B47" t="inlineStr"/>
       <c r="C47" s="2" t="n">
-        <v>45454</v>
+        <v>45539</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>COFINA EXPRESS NIARY TALY</t>
+          <t>AGENCE CASTOR</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>253010013366</v>
+        <v>253010013654</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Thiane DIOP</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr"/>
+          <t>COURA SIMAL</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>TEL_BUR '773282342.0' ne peut pas être interprété comme un numéro valide.</t>
+        </is>
+      </c>
       <c r="H47" t="inlineStr">
         <is>
           <t>Adresse email obligatoire manquante.</t>
@@ -1983,15 +2055,11 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>17424911</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>CHEIKH ABDOU KHADRE DIELANI</t>
-        </is>
-      </c>
+        <v>17394111</v>
+      </c>
+      <c r="B48" t="inlineStr"/>
       <c r="C48" s="2" t="n">
-        <v>45603</v>
+        <v>45541</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1999,14 +2067,18 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>253360000571</v>
+        <v>253010013662</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Fatou Ndiaye FALL</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr"/>
+          <t>DIEYNABA BOLY NIASSE</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>TEL_BUR '776664121.0' ne peut pas être interprété comme un numéro valide.</t>
+        </is>
+      </c>
       <c r="H48" t="inlineStr">
         <is>
           <t>Adresse email obligatoire manquante.</t>
@@ -2017,83 +2089,79 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>17277911</v>
+        <v>17188711</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>MAME DIARRA</t>
+          <t>BARA</t>
         </is>
       </c>
       <c r="C49" s="2" t="n">
-        <v>45498</v>
+        <v>45469</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>AGENCE CASTOR</t>
+          <t>COFINA EXPRESS TOUBA OCAS</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>253310086508</v>
+        <v>253310085958</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Fatou DIANKHA</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Adresse email obligatoire manquante.</t>
-        </is>
-      </c>
+          <t>Fatou Ndiaye FALL</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>TEL_BUR '774486367.0' ne peut pas être interprété comme un numéro valide.</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>17298611</v>
+        <v>17184411</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>OMAR</t>
+          <t>ABDOUL AZIZ DABAKH MALICK</t>
         </is>
       </c>
       <c r="C50" s="2" t="n">
-        <v>45505</v>
+        <v>45468</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>COFINA EXPRESS MARISTES</t>
+          <t>AGENCE PRINCIPALE POINT E</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>253310086627</v>
+        <v>253310085930</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Vinie DASYLVA</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Adresse email obligatoire manquante.</t>
-        </is>
-      </c>
+          <t>DIEYNABA BOLY NIASSE</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>TEL_BUR '772697233.0' ne peut pas être interprété comme un numéro valide.</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>17184511</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>CHRISHNA CHALONE</t>
-        </is>
-      </c>
+        <v>17191511</v>
+      </c>
+      <c r="B51" t="inlineStr"/>
       <c r="C51" s="2" t="n">
-        <v>45468</v>
+        <v>45470</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -2101,14 +2169,18 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>253310085929</v>
+        <v>253010013418</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
           <t>NDEYE Fatimatou Touré BOYE</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr"/>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>TEL_BUR '338275375.0' ne peut pas être interprété comme un numéro valide.</t>
+        </is>
+      </c>
       <c r="H51" t="inlineStr">
         <is>
           <t>Adresse email obligatoire manquante.</t>
@@ -2119,60 +2191,64 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>17334911</v>
+        <v>17243011</v>
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" s="2" t="n">
-        <v>45517</v>
+        <v>45488</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>AGENCE PRINCIPALE POINT E</t>
+          <t>AGENCE TOUBA KHAYRA</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>253010013595</v>
+        <v>253010013494</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>NDEYE Fatimatou Touré BOYE</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Adresse email obligatoire manquante.</t>
-        </is>
-      </c>
+          <t>Ndeye Mane DIEYE</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>TEL_BUR '776588108.0' ne peut pas être interprété comme un numéro valide.</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>17448511</v>
+        <v>17173611</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>MOUHAMED EL AMINE</t>
+          <t>MBAYE</t>
         </is>
       </c>
       <c r="C53" s="2" t="n">
-        <v>45565</v>
+        <v>45464</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>AGENCE VITRINE LAMINE GUEYE</t>
+          <t>COFINA EXPRESS MARISTES</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>253310087349</v>
+        <v>253310085877</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Ramatoulaye COLY</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr"/>
+          <t>Vinie DASYLVA</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>TEL_BUR '768441322.0' ne peut pas être interprété comme un numéro valide.</t>
+        </is>
+      </c>
       <c r="H53" t="inlineStr">
         <is>
           <t>Adresse email obligatoire manquante.</t>
@@ -2183,26 +2259,34 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>17590611</v>
-      </c>
-      <c r="B54" t="inlineStr"/>
+        <v>17290911</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>BASSIROU</t>
+        </is>
+      </c>
       <c r="C54" s="2" t="n">
-        <v>45617</v>
+        <v>45503</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>AGENCE VITRINE LAMINE GUEYE</t>
+          <t>COFINA EXPRESS TOUBA OCAS</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>253010013756</v>
+        <v>253310086581</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Ramatoulaye COLY</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr"/>
+          <t>Fatou Ndiaye FALL</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>TEL_BUR '762298952.0' ne peut pas être interprété comme un numéro valide.</t>
+        </is>
+      </c>
       <c r="H54" t="inlineStr">
         <is>
           <t>Adresse email obligatoire manquante.</t>
@@ -2213,30 +2297,34 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>17589111</v>
+        <v>17308311</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>PALOMA TAM SIR SANE</t>
+          <t>SERIGNE FALILOU</t>
         </is>
       </c>
       <c r="C55" s="2" t="n">
-        <v>45617</v>
+        <v>45509</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>AGENCE PRINCIPALE POINT E</t>
+          <t>AGENCE PIKINE</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>253310087786</v>
+        <v>253310086677</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>NDEYE Fatimatou Touré BOYE</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr"/>
+          <t>Ndeye Yacine MBAYE</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>TEL_BUR '781961344.0' ne peut pas être interprété comme un numéro valide.</t>
+        </is>
+      </c>
       <c r="H55" t="inlineStr">
         <is>
           <t>Adresse email obligatoire manquante.</t>
@@ -2247,15 +2335,11 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>17582311</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>ADJA AWA A N</t>
-        </is>
-      </c>
+        <v>17153911</v>
+      </c>
+      <c r="B56" t="inlineStr"/>
       <c r="C56" s="2" t="n">
-        <v>45615</v>
+        <v>45455</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -2263,14 +2347,18 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>253310087760</v>
+        <v>253010013373</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
           <t>Thiane DIOP</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr"/>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>TEL_BUR '772001297.0' ne peut pas être interprété comme un numéro valide.</t>
+        </is>
+      </c>
       <c r="H56" t="inlineStr">
         <is>
           <t>Adresse email obligatoire manquante.</t>
@@ -2278,6 +2366,1714 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>17185011</v>
+      </c>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" s="2" t="n">
+        <v>45468</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>AGENCE PRINCIPALE POINT E</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>253010013409</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>NDEYE Fatimatou Touré BOYE</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>TEL_BUR '776575949.0' ne peut pas être interprété comme un numéro valide.</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>17534811</v>
+      </c>
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>AGENCE SAINT-LOUIS</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>253010013737</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>DIEYNABA BOLY NIASSE</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>TEL_BUR '775524831.0' ne peut pas être interprété comme un numéro valide.</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Adresse email obligatoire manquante.</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>17188211</v>
+      </c>
+      <c r="B59" t="inlineStr"/>
+      <c r="C59" s="2" t="n">
+        <v>45469</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>AGENCE PRINCIPALE POINT E</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>253010013414</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>DIEYNABA BOLY NIASSE</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>TEL_BUR '775526616.0' ne peut pas être interprété comme un numéro valide.</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>17230111</v>
+      </c>
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" s="2" t="n">
+        <v>45483</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>COFINA EXPRESS MARISTES</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>253010013470</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Vinie DASYLVA</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>TEL_BUR '776441360.0' ne peut pas être interprété comme un numéro valide.</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>17510611</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>NASTE PREVALAN LOIQUE</t>
+        </is>
+      </c>
+      <c r="C61" s="2" t="n">
+        <v>45588</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>AGENCE PRINCIPALE POINT E</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>253310087519</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>COURA SIMAL</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>TEL_BUR '777809263.0' ne peut pas être interprété comme un numéro valide.</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>17319211</v>
+      </c>
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" s="2" t="n">
+        <v>45512</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>AGENCE PARCELLES</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>253010013580</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>DIEYNABA BOLY NIASSE</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>TEL_BUR '778875736.0' ne peut pas être interprété comme un numéro valide.</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Adresse email obligatoire manquante.</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>17542211</v>
+      </c>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" s="2" t="n">
+        <v>45601</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>AGENCE PRINCIPALE POINT E</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>253010013740</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>NDEYE Fatimatou Touré BOYE</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>TEL_BUR '771714725.0' ne peut pas être interprété comme un numéro valide.</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>17511211</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>SOKHNA FATY NDAO</t>
+        </is>
+      </c>
+      <c r="C64" s="2" t="n">
+        <v>45588</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>AGENCE PARCELLES</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>253310087522</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Astou Diop DIAWARA</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>TEL_BUR '787574199.0' ne peut pas être interprété comme un numéro valide.</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Adresse email obligatoire manquante.</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>17296711</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>ADJARATOU AIDA G. S</t>
+        </is>
+      </c>
+      <c r="C65" s="2" t="n">
+        <v>45504</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>COFINA EXPRESS SCAT URBAM</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>253310086622</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Ndeye Safietou NDIAYE</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>TEL_BUR '774652771.0' ne peut pas être interprété comme un numéro valide.</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>17344611</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>DIEU -VIE  BIENFAIT</t>
+        </is>
+      </c>
+      <c r="C66" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>AGENCE PRINCIPALE POINT E</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>253310086899</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>NDEYE Fatimatou Touré BOYE</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>TEL_BUR '771681827.0' ne peut pas être interprété comme un numéro valide.</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>17275311</v>
+      </c>
+      <c r="B67" t="inlineStr"/>
+      <c r="C67" s="2" t="n">
+        <v>45497</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>AGENCE PRINCIPALE POINT E</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>253010013527</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Marie Turpin KHAYATE</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>TEL_BUR '775970198.0' ne peut pas être interprété comme un numéro valide.</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>17236311</v>
+      </c>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" s="2" t="n">
+        <v>45484</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>AGENCE PARCELLES</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>253010013485</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>DIEYNABA BOLY NIASSE</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>TEL_BUR '772956800.0' ne peut pas être interprété comme un numéro valide.</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Adresse email obligatoire manquante.</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>17153011</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>MAMATH</t>
+        </is>
+      </c>
+      <c r="C69" s="2" t="n">
+        <v>45455</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>AGENCE KAOLACK</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>253310085772</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>AWA KASSE THIAM</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>TEL_BUR '785583008.0' ne peut pas être interprété comme un numéro valide.</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Adresse email obligatoire manquante.</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>17158611</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>KHADY</t>
+        </is>
+      </c>
+      <c r="C70" s="2" t="n">
+        <v>45456</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>AGENCE CASTOR</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>253310085817</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Fatou DIANKHA</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>TEL_BUR '774700708.0' ne peut pas être interprété comme un numéro valide.</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Adresse email obligatoire manquante.</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>17252711</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>MARIEME</t>
+        </is>
+      </c>
+      <c r="C71" s="2" t="n">
+        <v>45491</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>AGENCE PRINCIPALE POINT E</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>253310086353</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>NDEYE Fatimatou Touré BOYE</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>TEL_BUR '781712813.0' ne peut pas être interprété comme un numéro valide.</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Adresse email obligatoire manquante.</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>17365811</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>FATIMATA</t>
+        </is>
+      </c>
+      <c r="C72" s="2" t="n">
+        <v>45532</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>AGENCE PRINCIPALE POINT E</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>253250000445</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>COURA SIMAL</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>TEL_BUR '33788627416.0' ne peut pas être interprété comme un numéro valide.</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>17366011</v>
+      </c>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" s="2" t="n">
+        <v>45532</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>AGENCE PRINCIPALE POINT E</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>253010013635</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>COURA SIMAL</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>TEL_BUR '777247670.0' ne peut pas être interprété comme un numéro valide.</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>17364711</v>
+      </c>
+      <c r="B74" t="inlineStr"/>
+      <c r="C74" s="2" t="n">
+        <v>45532</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>AGENCE PRINCIPALE POINT E</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>253010013630</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>NDEYE Fatimatou Touré BOYE</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>TEL_BUR '774337042.0' ne peut pas être interprété comme un numéro valide.</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>17365211</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>BIRAIMA</t>
+        </is>
+      </c>
+      <c r="C75" s="2" t="n">
+        <v>45532</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>AGENCE PRINCIPALE POINT E</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>253310087017</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>NDEYE Fatimatou Touré BOYE</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>TEL_BUR '779085634.0' ne peut pas être interprété comme un numéro valide.</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Adresse email obligatoire manquante.</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>17374711</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>CHERIF ATKHANA</t>
+        </is>
+      </c>
+      <c r="C76" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>AGENCE PRINCIPALE POINT E</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>253310087068</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>NDEYE Fatimatou Touré BOYE</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>TEL_BUR '772715954.0' ne peut pas être interprété comme un numéro valide.</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Adresse email obligatoire manquante.</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>17254711</v>
+      </c>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" s="2" t="n">
+        <v>45491</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>AGENCE PRINCIPALE POINT E</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>253010013504</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>NDEYE Fatimatou Touré BOYE</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>TEL_BUR '776575647.0' ne peut pas être interprété comme un numéro valide.</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>17380211</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>CHEIKHNA</t>
+        </is>
+      </c>
+      <c r="C78" s="2" t="n">
+        <v>45538</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>AGENCE MBOUR</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>253310087105</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Ndeye AWA DRAME</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>TEL_BUR 'nan' ne peut pas être interprété comme un numéro valide.</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Adresse email obligatoire manquante.</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>17250011</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>DIONGNIMA</t>
+        </is>
+      </c>
+      <c r="C79" s="2" t="n">
+        <v>45489</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>AGENCE PRINCIPALE POINT E</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>253250000440</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>COURA SIMAL</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>TEL_BUR '33605809707.0' ne peut pas être interprété comme un numéro valide.</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>17388411</v>
+      </c>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" s="2" t="n">
+        <v>45540</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>AGENCE PRINCIPALE POINT E</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>253010013656</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>NDEYE Fatimatou Touré BOYE</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>TEL_BUR '776790505.0' ne peut pas être interprété comme un numéro valide.</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>17388511</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>MAME MOR ANTA SALY</t>
+        </is>
+      </c>
+      <c r="C81" s="2" t="n">
+        <v>45540</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>AGENCE PRINCIPALE POINT E</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>253310087154</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Marie Turpin KHAYATE</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>TEL_BUR '774591941.0' ne peut pas être interprété comme un numéro valide.</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Adresse email obligatoire manquante.</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>17388711</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>FORTUNE EXTASIE</t>
+        </is>
+      </c>
+      <c r="C82" s="2" t="n">
+        <v>45540</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>AGENCE PRINCIPALE POINT E</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>253310087153</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>NDEYE Fatimatou Touré BOYE</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>TEL_BUR '781726653.0' ne peut pas être interprété comme un numéro valide.</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>17545211</v>
+      </c>
+      <c r="B83" t="inlineStr"/>
+      <c r="C83" s="2" t="n">
+        <v>45602</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>AGENCE KAOLACK</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>253010013741</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>AWA KASSE THIAM</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>TEL_BUR '772552464.0' ne peut pas être interprété comme un numéro valide.</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>17282011</v>
+      </c>
+      <c r="B84" t="inlineStr"/>
+      <c r="C84" s="2" t="n">
+        <v>45499</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>AGENCE SAINT-LOUIS</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>253010013535</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>DIEYNABA BOLY NIASSE</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>TEL_BUR '776305458.0' ne peut pas être interprété comme un numéro valide.</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Adresse email obligatoire manquante.</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>17302111</v>
+      </c>
+      <c r="B85" t="inlineStr"/>
+      <c r="C85" s="2" t="n">
+        <v>45506</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>COFINA EXPRESS NGUELAW</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>253010013559</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>MAME DIARRA NDAO</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>TEL_BUR '775101911.0' ne peut pas être interprété comme un numéro valide.</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>17416611</v>
+      </c>
+      <c r="B86" t="inlineStr"/>
+      <c r="C86" s="2" t="n">
+        <v>45552</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>AGENCE PARCELLES</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>253010013691</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>DIEYNABA BOLY NIASSE</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>TEL_BUR '777598091.0' ne peut pas être interprété comme un numéro valide.</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Adresse email obligatoire manquante.</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>17179211</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>DE DAROU KHOUDOS</t>
+        </is>
+      </c>
+      <c r="C87" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>AGENCE TOUBA KHAYRA</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>253310085892</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Ndeye Mane DIEYE</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>TEL_BUR '767506220.0' ne peut pas être interprété comme un numéro valide.</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>17151111</v>
+      </c>
+      <c r="B88" t="inlineStr"/>
+      <c r="C88" s="2" t="n">
+        <v>45454</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>COFINA EXPRESS MARISTES</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>253010013371</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Vinie DASYLVA</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>TEL_BUR '784784224.0' ne peut pas être interprété comme un numéro valide.</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>17456711</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>MOUHAMADOU LAMINE</t>
+        </is>
+      </c>
+      <c r="C89" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>AGENCE LINGUERE'LA GUEDIAWAYE</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>253600000083</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>DIEYNABA BOLY NIASSE</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>TEL_BUR '773022013.0' ne peut pas être interprété comme un numéro valide.</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Adresse email obligatoire manquante.</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>17149411</v>
+      </c>
+      <c r="B90" t="inlineStr"/>
+      <c r="C90" s="2" t="n">
+        <v>45454</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>COFINA EXPRESS NIARY TALY</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>253010013366</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Thiane DIOP</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>TEL_BUR '782965888.0' ne peut pas être interprété comme un numéro valide.</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Adresse email obligatoire manquante.</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>17424911</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>CHEIKH ABDOU KHADRE DIELANI</t>
+        </is>
+      </c>
+      <c r="C91" s="2" t="n">
+        <v>45603</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>AGENCE PRINCIPALE POINT E</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>253360000571</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Fatou Ndiaye FALL</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>TEL_BUR '778188680.0' ne peut pas être interprété comme un numéro valide.</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Adresse email obligatoire manquante.</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>17301511</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>ABOUBACRY</t>
+        </is>
+      </c>
+      <c r="C92" s="2" t="n">
+        <v>45506</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>COFINA EXPRESS MARISTES</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>253310086644</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Vinie DASYLVA</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>TEL_BUR '781310606.0' ne peut pas être interprété comme un numéro valide.</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>17277911</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>MAME DIARRA</t>
+        </is>
+      </c>
+      <c r="C93" s="2" t="n">
+        <v>45498</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>AGENCE CASTOR</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>253310086508</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Fatou DIANKHA</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>TEL_BUR '776255025.0' ne peut pas être interprété comme un numéro valide.</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Adresse email obligatoire manquante.</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>17298611</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>OMAR</t>
+        </is>
+      </c>
+      <c r="C94" s="2" t="n">
+        <v>45505</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>COFINA EXPRESS MARISTES</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>253310086627</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Vinie DASYLVA</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>TEL_BUR '784026150.0' ne peut pas être interprété comme un numéro valide.</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Adresse email obligatoire manquante.</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>17435311</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>YASSARATH M. M. A</t>
+        </is>
+      </c>
+      <c r="C95" s="2" t="n">
+        <v>45559</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>COFINA EXPRESS MARISTES</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>253310087299</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Ndeye Safietou NDIAYE</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>TEL_BUR '773695473.0' ne peut pas être interprété comme un numéro valide.</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>17184511</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>CHRISHNA CHALONE</t>
+        </is>
+      </c>
+      <c r="C96" s="2" t="n">
+        <v>45468</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>AGENCE PRINCIPALE POINT E</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>253310085929</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>NDEYE Fatimatou Touré BOYE</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>TEL_BUR '781806246.0' ne peut pas être interprété comme un numéro valide.</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Adresse email obligatoire manquante.</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>17334911</v>
+      </c>
+      <c r="B97" t="inlineStr"/>
+      <c r="C97" s="2" t="n">
+        <v>45517</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>AGENCE PRINCIPALE POINT E</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>253010013595</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>NDEYE Fatimatou Touré BOYE</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>TEL_BUR '774230073.0' ne peut pas être interprété comme un numéro valide.</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Adresse email obligatoire manquante.</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>17448511</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>MOUHAMED EL AMINE</t>
+        </is>
+      </c>
+      <c r="C98" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>AGENCE VITRINE LAMINE GUEYE</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>253310087349</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Ramatoulaye COLY</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>TEL_BUR '772934796.0' ne peut pas être interprété comme un numéro valide.</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Adresse email obligatoire manquante.</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>17236211</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>TOMBON</t>
+        </is>
+      </c>
+      <c r="C99" s="2" t="n">
+        <v>45484</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>AGENCE PRINCIPALE POINT E</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>253250000436</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>NDEYE Fatimatou Touré BOYE</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>TEL_BUR '766639879.0' ne peut pas être interprété comme un numéro valide.</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>17561211</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>SAMBA PATHE</t>
+        </is>
+      </c>
+      <c r="C100" s="2" t="n">
+        <v>45608</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>AGENCE PRINCIPALE POINT E</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>253250000458</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Marie Turpin KHAYATE</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>TEL_BUR '33763441496.0' ne peut pas être interprété comme un numéro valide.</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>17599711</v>
+      </c>
+      <c r="B101" t="inlineStr"/>
+      <c r="C101" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>COFINA EXPRESS DIOURBEL</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>253010013757</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Fatou DIOP</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>TEL_BUR '776742392.0' ne peut pas être interprété comme un numéro valide.</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>17590611</v>
+      </c>
+      <c r="B102" t="inlineStr"/>
+      <c r="C102" s="2" t="n">
+        <v>45617</v>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>AGENCE VITRINE LAMINE GUEYE</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>253010013756</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Ramatoulaye COLY</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>TEL_BUR '774200529.0' ne peut pas être interprété comme un numéro valide.</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Adresse email obligatoire manquante.</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>17589111</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>PALOMA TAM SIR SANE</t>
+        </is>
+      </c>
+      <c r="C103" s="2" t="n">
+        <v>45617</v>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>AGENCE PRINCIPALE POINT E</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>253310087786</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>COURA SIMAL</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>TEL_BUR '778343799.0' ne peut pas être interprété comme un numéro valide.</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Adresse email obligatoire manquante.</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>17582311</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>ADJA AWA A N</t>
+        </is>
+      </c>
+      <c r="C104" s="2" t="n">
+        <v>45615</v>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>COFINA EXPRESS NIARY TALY</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>253310087760</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Thiane DIOP</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>TEL_BUR '776428422.0' ne peut pas être interprété comme un numéro valide.</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Adresse email obligatoire manquante.</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>17560711</v>
+      </c>
+      <c r="B105" t="inlineStr"/>
+      <c r="C105" s="2" t="n">
+        <v>45608</v>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>AGENCE TOUBA KHAYRA</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>253010013748</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Ndeye Mane DIEYE</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>TEL_BUR '775534716.0' ne peut pas être interprété comme un numéro valide.</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>17584611</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>MOUHAMADOU MOUSTAPHA</t>
+        </is>
+      </c>
+      <c r="C106" s="2" t="n">
+        <v>45616</v>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>AGENCE VITRINE LAMINE GUEYE</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>253360000572</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>AISSATOU NDIAYE</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>TEL_BUR '773142055.0' ne peut pas être interprété comme un numéro valide.</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
